--- a/data2/port_risk_av_short.xlsx
+++ b/data2/port_risk_av_short.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.14516</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.06929</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.00755</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.03066</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.12761</v>
+        <v>-0.4627</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.03782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.009180000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.05778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.22532</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.04587</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.00322</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.22936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.09866</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.19893</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.06293</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.05217</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.05239</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.10296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.00036</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.05897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.30249</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.26687</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.13513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0751</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.00063</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.04088</v>
+        <v>0.86083</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.02075</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.03692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.01499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.03088</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.09384000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.03433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.17205</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.15231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.1416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.04707</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.08659</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.12137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.22052</v>
+        <v>0.62176</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.10743</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.16379</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.19238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.07633</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45">
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.03832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.06454</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.09555</v>
+        <v>0.04183</v>
       </c>
     </row>
     <row r="48">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.00566</v>
+        <v>0.93828</v>
       </c>
     </row>
     <row r="49">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.22926</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.13526</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
